--- a/src/excel/salida/U_PLANTILLA_CERTIFICADO_QR1.xlsx
+++ b/src/excel/salida/U_PLANTILLA_CERTIFICADO_QR1.xlsx
@@ -442,9 +442,6 @@
       <c r="L1" t="str">
         <v>EVENTO_ID</v>
       </c>
-      <c r="M1" t="str">
-        <v>FECHA_EMISION</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -456,7 +453,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -618,7 +615,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C34"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C16"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -652,13 +649,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>Conferencia sobre IA</v>
+        <v>II CONVERSATORIO: APORTES DE LAS HUMANIDADES A LA FORMACIÓN PROFESIONAL</v>
       </c>
       <c r="C2" s="1">
-        <v>45640.79125</v>
+        <v>45627.79125</v>
       </c>
       <c r="D2" t="str">
-        <v>AUDITORIO JUAN PABLO II</v>
+        <v>LABORATORIO SOFTWARE DE SIMULACIÓN</v>
       </c>
       <c r="E2" t="str">
         <v>Sede Central Villa El Salvador</v>
